--- a/ironhack/code_clone/OutWit scraped export - Moss_Results.xlsx
+++ b/ironhack/code_clone/OutWit scraped export - Moss_Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Programming/PythonPractice/ironhack/code_clone/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Collection1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -461,8 +461,8 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -485,7 +485,7 @@
         <v>22</v>
       </c>
       <c r="E1">
-        <f>(2*B1*D1)/(100*B1+100*D1+2*B1*D1)</f>
+        <f t="shared" ref="E1:E32" si="0">(2*B1*D1)/(100*B1+100*D1+2*B1*D1)</f>
         <v>0.28683385579937304</v>
       </c>
       <c r="F1" s="1">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>(2*B2*D2)/(100*B2+100*D2+2*B2*D2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2">
@@ -527,7 +527,7 @@
         <v>27</v>
       </c>
       <c r="E3">
-        <f>(2*B3*D3)/(100*B3+100*D3+2*B3*D3)</f>
+        <f t="shared" si="0"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="F3">
@@ -548,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <f>(2*B4*D4)/(100*B4+100*D4+2*B4*D4)</f>
+        <f t="shared" si="0"/>
         <v>4.1811846689895474E-2</v>
       </c>
       <c r="F4">
@@ -569,7 +569,7 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <f>(2*B5*D5)/(100*B5+100*D5+2*B5*D5)</f>
+        <f t="shared" si="0"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="F5">
@@ -590,11 +590,11 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <f>(2*B6*D6)/(100*B6+100*D6+2*B6*D6)</f>
+        <f t="shared" si="0"/>
         <v>6.0150375939849621E-2</v>
       </c>
       <c r="F6">
-        <v>6.0150375939849621E-2</v>
+        <v>6.01503759398496E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <f>(2*B7*D7)/(100*B7+100*D7+2*B7*D7)</f>
+        <f t="shared" si="0"/>
         <v>1.8806214227309895E-2</v>
       </c>
       <c r="F7">
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <f>(2*B8*D8)/(100*B8+100*D8+2*B8*D8)</f>
+        <f t="shared" si="0"/>
         <v>1.8806214227309895E-2</v>
       </c>
       <c r="F8">
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f>(2*B9*D9)/(100*B9+100*D9+2*B9*D9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -674,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <f>(2*B10*D10)/(100*B10+100*D10+2*B10*D10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -695,7 +695,7 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <f>(2*B11*D11)/(100*B11+100*D11+2*B11*D11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -716,7 +716,7 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <f>(2*B12*D12)/(100*B12+100*D12+2*B12*D12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12">
@@ -737,7 +737,7 @@
         <v>17</v>
       </c>
       <c r="E13">
-        <f>(2*B13*D13)/(100*B13+100*D13+2*B13*D13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -758,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <f>(2*B14*D14)/(100*B14+100*D14+2*B14*D14)</f>
+        <f t="shared" si="0"/>
         <v>0.26348738722150616</v>
       </c>
       <c r="F14">
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f>(2*B15*D15)/(100*B15+100*D15+2*B15*D15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15">
@@ -800,7 +800,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <f>(2*B16*D16)/(100*B16+100*D16+2*B16*D16)</f>
+        <f t="shared" si="0"/>
         <v>7.0796460176991149E-2</v>
       </c>
       <c r="F16">
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="E17">
-        <f>(2*B17*D17)/(100*B17+100*D17+2*B17*D17)</f>
+        <f t="shared" si="0"/>
         <v>7.0796460176991149E-2</v>
       </c>
       <c r="F17">
@@ -842,7 +842,7 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <f>(2*B18*D18)/(100*B18+100*D18+2*B18*D18)</f>
+        <f t="shared" si="0"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="F18">
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>(2*B19*D19)/(100*B19+100*D19+2*B19*D19)</f>
+        <f t="shared" si="0"/>
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="F19">
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>(2*B20*D20)/(100*B20+100*D20+2*B20*D20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20">
@@ -905,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <f>(2*B21*D21)/(100*B21+100*D21+2*B21*D21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21">
@@ -926,7 +926,7 @@
         <v>23</v>
       </c>
       <c r="E22">
-        <f>(2*B22*D22)/(100*B22+100*D22+2*B22*D22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22">
@@ -947,7 +947,7 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <f>(2*B23*D23)/(100*B23+100*D23+2*B23*D23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23">
@@ -968,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="E24">
-        <f>(2*B24*D24)/(100*B24+100*D24+2*B24*D24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="e">
-        <f>(2*B25*D25)/(100*B25+100*D25+2*B25*D25)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" t="e">
@@ -1010,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <f>(2*B26*D26)/(100*B26+100*D26+2*B26*D26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26">
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f>(2*B27*D27)/(100*B27+100*D27+2*B27*D27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27">
@@ -1052,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <f>(2*B28*D28)/(100*B28+100*D28+2*B28*D28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28">
@@ -1073,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <f>(2*B29*D29)/(100*B29+100*D29+2*B29*D29)</f>
+        <f t="shared" si="0"/>
         <v>0.49748743718592964</v>
       </c>
       <c r="F29">
@@ -1094,7 +1094,7 @@
         <v>25</v>
       </c>
       <c r="E30">
-        <f>(2*B30*D30)/(100*B30+100*D30+2*B30*D30)</f>
+        <f t="shared" si="0"/>
         <v>8.6161879895561358E-2</v>
       </c>
       <c r="F30">
@@ -1115,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="E31">
-        <f>(2*B31*D31)/(100*B31+100*D31+2*B31*D31)</f>
+        <f t="shared" si="0"/>
         <v>0.12333736396614269</v>
       </c>
       <c r="F31">
@@ -1136,7 +1136,7 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <f>(2*B32*D32)/(100*B32+100*D32+2*B32*D32)</f>
+        <f t="shared" si="0"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="F32">
@@ -1157,7 +1157,7 @@
         <v>24</v>
       </c>
       <c r="E33">
-        <f>(2*B33*D33)/(100*B33+100*D33+2*B33*D33)</f>
+        <f t="shared" ref="E33:E64" si="1">(2*B33*D33)/(100*B33+100*D33+2*B33*D33)</f>
         <v>1.8806214227309895E-2</v>
       </c>
       <c r="F33">
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <f>(2*B34*D34)/(100*B34+100*D34+2*B34*D34)</f>
+        <f t="shared" si="1"/>
         <v>7.0796460176991149E-2</v>
       </c>
       <c r="F34">
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f>(2*B35*D35)/(100*B35+100*D35+2*B35*D35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F35">
@@ -1220,7 +1220,7 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <f>(2*B36*D36)/(100*B36+100*D36+2*B36*D36)</f>
+        <f t="shared" si="1"/>
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="F36">
@@ -1241,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="E37">
-        <f>(2*B37*D37)/(100*B37+100*D37+2*B37*D37)</f>
+        <f t="shared" si="1"/>
         <v>5.0401753104455806E-2</v>
       </c>
       <c r="F37">
@@ -1262,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <f>(2*B38*D38)/(100*B38+100*D38+2*B38*D38)</f>
+        <f t="shared" si="1"/>
         <v>8.874801901743265E-2</v>
       </c>
       <c r="F38">
@@ -1283,7 +1283,7 @@
         <v>26</v>
       </c>
       <c r="E39">
-        <f>(2*B39*D39)/(100*B39+100*D39+2*B39*D39)</f>
+        <f t="shared" si="1"/>
         <v>8.6161879895561358E-2</v>
       </c>
       <c r="F39">
@@ -1304,7 +1304,7 @@
         <v>28</v>
       </c>
       <c r="E40">
-        <f>(2*B40*D40)/(100*B40+100*D40+2*B40*D40)</f>
+        <f t="shared" si="1"/>
         <v>4.1811846689895474E-2</v>
       </c>
       <c r="F40">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <f>(2*B41*D41)/(100*B41+100*D41+2*B41*D41)</f>
+        <f t="shared" si="1"/>
         <v>6.0150375939849621E-2</v>
       </c>
       <c r="F41">
@@ -1346,7 +1346,7 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <f>(2*B42*D42)/(100*B42+100*D42+2*B42*D42)</f>
+        <f t="shared" si="1"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="F42">
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f>(2*B43*D43)/(100*B43+100*D43+2*B43*D43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F43">
@@ -1388,7 +1388,7 @@
         <v>26</v>
       </c>
       <c r="E44">
-        <f>(2*B44*D44)/(100*B44+100*D44+2*B44*D44)</f>
+        <f t="shared" si="1"/>
         <v>8.6161879895561358E-2</v>
       </c>
       <c r="F44">
@@ -1409,7 +1409,7 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <f>(2*B45*D45)/(100*B45+100*D45+2*B45*D45)</f>
+        <f t="shared" si="1"/>
         <v>0.12333736396614269</v>
       </c>
       <c r="F45">
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <f>(2*B46*D46)/(100*B46+100*D46+2*B46*D46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46">
@@ -1451,7 +1451,7 @@
         <v>13</v>
       </c>
       <c r="E47">
-        <f>(2*B47*D47)/(100*B47+100*D47+2*B47*D47)</f>
+        <f t="shared" si="1"/>
         <v>0.26348738722150616</v>
       </c>
       <c r="F47">
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <f>(2*B48*D48)/(100*B48+100*D48+2*B48*D48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F48">
@@ -1493,7 +1493,7 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <f>(2*B49*D49)/(100*B49+100*D49+2*B49*D49)</f>
+        <f t="shared" si="1"/>
         <v>0.12333736396614269</v>
       </c>
       <c r="F49">
@@ -1514,7 +1514,7 @@
         <v>23</v>
       </c>
       <c r="E50">
-        <f>(2*B50*D50)/(100*B50+100*D50+2*B50*D50)</f>
+        <f t="shared" si="1"/>
         <v>8.874801901743265E-2</v>
       </c>
       <c r="F50">
@@ -1535,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <f>(2*B51*D51)/(100*B51+100*D51+2*B51*D51)</f>
+        <f t="shared" si="1"/>
         <v>3.3149171270718231E-2</v>
       </c>
       <c r="F51">
@@ -1556,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="E52">
-        <f>(2*B52*D52)/(100*B52+100*D52+2*B52*D52)</f>
+        <f t="shared" si="1"/>
         <v>0.28683385579937304</v>
       </c>
       <c r="F52">
@@ -1577,7 +1577,7 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <f>(2*B53*D53)/(100*B53+100*D53+2*B53*D53)</f>
+        <f t="shared" si="1"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="F53">
@@ -1598,7 +1598,7 @@
         <v>24</v>
       </c>
       <c r="E54">
-        <f>(2*B54*D54)/(100*B54+100*D54+2*B54*D54)</f>
+        <f t="shared" si="1"/>
         <v>1.8806214227309895E-2</v>
       </c>
       <c r="F54">
@@ -1619,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <f>(2*B55*D55)/(100*B55+100*D55+2*B55*D55)</f>
+        <f t="shared" si="1"/>
         <v>7.0796460176991149E-2</v>
       </c>
       <c r="F55">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <f>(2*B56*D56)/(100*B56+100*D56+2*B56*D56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F56">
@@ -1661,7 +1661,7 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <f>(2*B57*D57)/(100*B57+100*D57+2*B57*D57)</f>
+        <f t="shared" si="1"/>
         <v>0.49748743718592964</v>
       </c>
       <c r="F57">
@@ -1682,7 +1682,7 @@
         <v>25</v>
       </c>
       <c r="E58">
-        <f>(2*B58*D58)/(100*B58+100*D58+2*B58*D58)</f>
+        <f t="shared" si="1"/>
         <v>8.6161879895561358E-2</v>
       </c>
       <c r="F58">
@@ -1703,7 +1703,7 @@
         <v>12</v>
       </c>
       <c r="E59">
-        <f>(2*B59*D59)/(100*B59+100*D59+2*B59*D59)</f>
+        <f t="shared" si="1"/>
         <v>0.12333736396614269</v>
       </c>
       <c r="F59">
@@ -1724,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="e">
-        <f>(2*B60*D60)/(100*B60+100*D60+2*B60*D60)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F60" t="e">
@@ -1745,11 +1745,11 @@
         <v>9</v>
       </c>
       <c r="E61">
-        <f>(2*B61*D61)/(100*B61+100*D61+2*B61*D61)</f>
+        <f t="shared" si="1"/>
         <v>5.0401753104455806E-2</v>
       </c>
       <c r="F61">
-        <v>5.0401753104455806E-2</v>
+        <v>5.0401753104455799E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
